--- a/ブランド別詳細分析.xlsx
+++ b/ブランド別詳細分析.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2564 件</t>
+          <t>2572 件</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7071 個</t>
+          <t>7081 個</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$322.32</t>
+          <t>$322.02</t>
         </is>
       </c>
     </row>
@@ -1632,19 +1632,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C46" t="n">
-        <v>5021</v>
+        <v>5030</v>
       </c>
       <c r="D46" t="n">
-        <v>247.7893563336766</v>
+        <v>247.641934325295</v>
       </c>
       <c r="E46" t="n">
         <v>179</v>
       </c>
       <c r="F46" t="n">
-        <v>1.125538703748636</v>
+        <v>1.124528480183861</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1728,19 +1728,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C49" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D49" t="n">
-        <v>707.1887804878049</v>
+        <v>704.405</v>
       </c>
       <c r="E49" t="n">
-        <v>465</v>
+        <v>464.995</v>
       </c>
       <c r="F49" t="n">
-        <v>1.055719436747257</v>
+        <v>1.05651870538648</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2819,19 +2819,19 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C88" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D88" t="n">
-        <v>670.8239047619047</v>
+        <v>667.9104716981132</v>
       </c>
       <c r="E88" t="n">
-        <v>454.93</v>
+        <v>442.865</v>
       </c>
       <c r="F88" t="n">
-        <v>1.077881263082817</v>
+        <v>1.078391077718749</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3113,16 +3113,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C99" t="n">
-        <v>2661</v>
+        <v>2665</v>
       </c>
       <c r="D99" t="n">
-        <v>392.04604826546</v>
+        <v>390.653988005997</v>
       </c>
       <c r="E99" t="n">
-        <v>204.21</v>
+        <v>202.72</v>
       </c>
     </row>
     <row r="100">
@@ -3132,16 +3132,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C100" t="n">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="D100" t="n">
-        <v>401.2828407224959</v>
+        <v>401.1669180327869</v>
       </c>
       <c r="E100" t="n">
-        <v>279.9</v>
+        <v>279.95</v>
       </c>
     </row>
     <row r="101">
@@ -3151,16 +3151,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C101" t="n">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="D101" t="n">
-        <v>221.3190179414542</v>
+        <v>221.4706037735849</v>
       </c>
       <c r="E101" t="n">
-        <v>163.42</v>
+        <v>163.465</v>
       </c>
     </row>
     <row r="102">
@@ -3170,13 +3170,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C102" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D102" t="n">
-        <v>369.1956962025316</v>
+        <v>367.4366875</v>
       </c>
       <c r="E102" t="n">
         <v>261.3</v>
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C110" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111">
@@ -3298,10 +3298,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C111" t="n">
-        <v>2871</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="112">
@@ -3311,10 +3311,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C112" t="n">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="113">
@@ -3337,10 +3337,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C114" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="115">
@@ -3350,10 +3350,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C115" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C116" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117">
@@ -3567,26 +3567,91 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>133</v>
+      </c>
+      <c r="C138" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
           <t>2026-01</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B139" t="n">
         <v>2431</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C139" t="n">
         <v>6936</v>
       </c>
     </row>
@@ -6157,7 +6222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,7 +6250,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1748 件</t>
+          <t>14609 件</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6262,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6193 個</t>
+          <t>25935 個</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6274,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$235.76</t>
+          <t>$254.01</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6286,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$157.69</t>
+          <t>$170.00</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6310,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$7200.00</t>
+          <t>$8497.99</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6322,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.245</t>
+          <t>1.163</t>
         </is>
       </c>
     </row>
@@ -6269,7 +6334,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>87.3%</t>
+          <t>87.2%</t>
         </is>
       </c>
     </row>
@@ -6337,19 +6402,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>752</v>
+        <v>3522</v>
       </c>
       <c r="C13" t="n">
-        <v>199</v>
+        <v>199.99</v>
       </c>
       <c r="D13" t="n">
-        <v>275</v>
+        <v>2117</v>
       </c>
       <c r="E13" t="n">
-        <v>1.53543239114786</v>
+        <v>1.280882408861052</v>
       </c>
       <c r="F13" t="n">
-        <v>20895</v>
+        <v>20999</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -6369,19 +6434,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233</v>
+        <v>425</v>
       </c>
       <c r="C14" t="n">
-        <v>249.18</v>
+        <v>243.36</v>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1390147311339918</v>
+        <v>0.3282200001098287</v>
       </c>
       <c r="F14" t="n">
-        <v>26164</v>
+        <v>25553</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -6401,19 +6466,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>205</v>
+        <v>390</v>
       </c>
       <c r="C15" t="n">
-        <v>141.8</v>
+        <v>137.5</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09147776093179724</v>
+        <v>0.2288869946109145</v>
       </c>
       <c r="F15" t="n">
-        <v>14889</v>
+        <v>14437</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -6433,19 +6498,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163</v>
+        <v>390</v>
       </c>
       <c r="C16" t="n">
-        <v>266.28</v>
+        <v>262.095</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1864328503503182</v>
+        <v>0.1533320472770252</v>
       </c>
       <c r="F16" t="n">
-        <v>27959</v>
+        <v>27520</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -6465,19 +6530,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="C17" t="n">
-        <v>340.95</v>
+        <v>336.01</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>0.128504702926722</v>
+        <v>0.1068766583487584</v>
       </c>
       <c r="F17" t="n">
-        <v>35800</v>
+        <v>35281</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -6497,19 +6562,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C18" t="n">
-        <v>60.195</v>
+        <v>57.945</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6030621922211372</v>
+        <v>0.442797599447204</v>
       </c>
       <c r="F18" t="n">
-        <v>6320</v>
+        <v>6084</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -6525,256 +6590,256 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GWX-5600</t>
+          <t>GA-2300</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="C19" t="n">
-        <v>147.84</v>
+        <v>135</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1300908538179699</v>
+        <v>0.1207027337598528</v>
       </c>
       <c r="F19" t="n">
-        <v>15523</v>
+        <v>14175</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CASIO GWX-5600 Watch</t>
+          <t>CASIO GA-2300 Watch</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>CASIO GWX-5600 時計</t>
+          <t>CASIO GA-2300 時計</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GPR-H1000</t>
+          <t>BGD-5650</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="C20" t="n">
-        <v>414.035</v>
+        <v>125.38</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06122556610436409</v>
+        <v>0.1388890158604605</v>
       </c>
       <c r="F20" t="n">
-        <v>43474</v>
+        <v>13165</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CASIO GPR-H1000 Watch</t>
+          <t>CASIO BGD-5650 Watch</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CASIO GPR-H1000 時計</t>
+          <t>CASIO BGD-5650 時計</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PRW-35LD</t>
+          <t>GPR-H1000</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="C21" t="n">
-        <v>261.39</v>
+        <v>407</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01860042961330535</v>
+        <v>0.05500062308499061</v>
       </c>
       <c r="F21" t="n">
-        <v>27446</v>
+        <v>42735</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CASIO PRW-35LD Watch</t>
+          <t>CASIO GPR-H1000 Watch</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CASIO PRW-35LD 時計</t>
+          <t>CASIO GPR-H1000 時計</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WVA-M630D</t>
+          <t>OCW-S100</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="C22" t="n">
-        <v>88.995</v>
+        <v>340</v>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08997042205886646</v>
+        <v>0.21600202188798</v>
       </c>
       <c r="F22" t="n">
-        <v>9344</v>
+        <v>35700</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CASIO WVA-M630D Watch</t>
+          <t>CASIO OCW-S100 Watch</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>CASIO WVA-M630D 時計</t>
+          <t>CASIO OCW-S100 時計</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GW-6900</t>
+          <t>LCW-M100DE</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="C23" t="n">
-        <v>133.925</v>
+        <v>124.765</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2028681050784825</v>
+        <v>0.1265437988955125</v>
       </c>
       <c r="F23" t="n">
-        <v>14062</v>
+        <v>13100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CASIO GW-6900 Watch</t>
+          <t>CASIO LCW-M100DE Watch</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>CASIO GW-6900 時計</t>
+          <t>CASIO LCW-M100DE 時計</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>WVA-M630B</t>
+          <t>GWX-5600</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="C24" t="n">
-        <v>81.65000000000001</v>
+        <v>141.9</v>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06612212660504417</v>
+        <v>0.1792179533208726</v>
       </c>
       <c r="F24" t="n">
-        <v>8573</v>
+        <v>14899</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CASIO WVA-M630B Watch</t>
+          <t>CASIO GWX-5600 Watch</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>CASIO WVA-M630B 時計</t>
+          <t>CASIO GWX-5600 時計</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OCW-S100</t>
+          <t>PAC-MAN</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="C25" t="n">
-        <v>360</v>
+        <v>133.82</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2084256454867577</v>
+        <v>0.4930205613029257</v>
       </c>
       <c r="F25" t="n">
-        <v>37800</v>
+        <v>14051</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CASIO OCW-S100 Watch</t>
+          <t>CASIO PAC-MAN Watch</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>CASIO OCW-S100 時計</t>
+          <t>CASIO PAC-MAN 時計</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PRJ-B001B</t>
+          <t>WVA-M630D</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="C26" t="n">
-        <v>155.605</v>
+        <v>86.19499999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07479522350262893</v>
+        <v>0.1498430400699864</v>
       </c>
       <c r="F26" t="n">
-        <v>16339</v>
+        <v>9050</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CASIO PRJ-B001B Watch</t>
+          <t>CASIO WVA-M630D Watch</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>CASIO PRJ-B001B 時計</t>
+          <t>CASIO WVA-M630D 時計</t>
         </is>
       </c>
     </row>
@@ -6785,19 +6850,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="C27" t="n">
-        <v>90.715</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08396987915910994</v>
+        <v>0.1683311258061918</v>
       </c>
       <c r="F27" t="n">
-        <v>9525</v>
+        <v>9326</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -6813,480 +6878,480 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GA-2300</t>
+          <t>WVQ-M410</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="C28" t="n">
-        <v>130.01</v>
+        <v>90.48999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1064220277907424</v>
+        <v>0.2149402052686936</v>
       </c>
       <c r="F28" t="n">
-        <v>13651</v>
+        <v>9501</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CASIO GA-2300 Watch</t>
+          <t>CASIO WVQ-M410 Watch</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>CASIO GA-2300 時計</t>
+          <t>CASIO WVQ-M410 時計</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BGD-5650</t>
+          <t>PRW-35LD</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C29" t="n">
-        <v>124.74</v>
+        <v>264.35</v>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08801083266951587</v>
+        <v>0.07752057185978167</v>
       </c>
       <c r="F29" t="n">
-        <v>13098</v>
+        <v>27757</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CASIO BGD-5650 Watch</t>
+          <t>CASIO PRW-35LD Watch</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>CASIO BGD-5650 時計</t>
+          <t>CASIO PRW-35LD 時計</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>WVQ-M410</t>
+          <t>GMA-S110BE</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="C30" t="n">
-        <v>94.015</v>
+        <v>182.46</v>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2451129094320324</v>
+        <v>0.2075933165976332</v>
       </c>
       <c r="F30" t="n">
-        <v>9872</v>
+        <v>19158</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CASIO WVQ-M410 Watch</t>
+          <t>CASIO GMA-S110BE Watch</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>CASIO WVQ-M410 時計</t>
+          <t>CASIO GMA-S110BE 時計</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ABL-100WE</t>
+          <t>GMW-B5000D</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C31" t="n">
-        <v>74.935</v>
+        <v>392.145</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05827582252733764</v>
+        <v>0.215294696414687</v>
       </c>
       <c r="F31" t="n">
-        <v>7868</v>
+        <v>41175</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CASIO ABL-100WE Watch</t>
+          <t>CASIO GMW-B5000D Watch</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>CASIO ABL-100WE 時計</t>
+          <t>CASIO GMW-B5000D 時計</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GA-V01</t>
+          <t>GW-5000HS</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="C32" t="n">
-        <v>145.35</v>
+        <v>263.5</v>
       </c>
       <c r="D32" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E32" t="n">
-        <v>0.09905650141370316</v>
+        <v>0.1635483807886564</v>
       </c>
       <c r="F32" t="n">
-        <v>15262</v>
+        <v>27668</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CASIO GA-V01 Watch</t>
+          <t>CASIO GW-5000HS Watch</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>CASIO GA-V01 時計</t>
+          <t>CASIO GW-5000HS 時計</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LCW-M300D</t>
+          <t>WVA-M630B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="C33" t="n">
-        <v>127.44</v>
+        <v>79</v>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1081139087767841</v>
+        <v>0.1310432139709222</v>
       </c>
       <c r="F33" t="n">
-        <v>13381</v>
+        <v>8295</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CASIO LCW-M300D Watch</t>
+          <t>CASIO WVA-M630B Watch</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>CASIO LCW-M300D 時計</t>
+          <t>CASIO WVA-M630B 時計</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LCW-M100DE</t>
+          <t>GA-V01</t>
         </is>
       </c>
       <c r="B34" t="n">
+        <v>139</v>
+      </c>
+      <c r="C34" t="n">
+        <v>160.28</v>
+      </c>
+      <c r="D34" t="n">
         <v>50</v>
       </c>
-      <c r="C34" t="n">
-        <v>125.59</v>
-      </c>
-      <c r="D34" t="n">
-        <v>8</v>
-      </c>
       <c r="E34" t="n">
-        <v>0.04289084201186563</v>
+        <v>0.1322334678689268</v>
       </c>
       <c r="F34" t="n">
-        <v>13187</v>
+        <v>16829</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CASIO LCW-M100DE Watch</t>
+          <t>CASIO GA-V01 Watch</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>CASIO LCW-M100DE 時計</t>
+          <t>CASIO GA-V01 時計</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GLX-5600</t>
+          <t>ABL-100WE</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="C35" t="n">
-        <v>96.94499999999999</v>
+        <v>87.13</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09666160596526868</v>
+        <v>0.1994976522803425</v>
       </c>
       <c r="F35" t="n">
-        <v>10179</v>
+        <v>9149</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CASIO GLX-5600 Watch</t>
+          <t>CASIO ABL-100WE Watch</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>CASIO GLX-5600 時計</t>
+          <t>CASIO ABL-100WE 時計</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GWX-5700CS</t>
+          <t>GW-6900</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="C36" t="n">
-        <v>145</v>
+        <v>138.56</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08655881277145434</v>
+        <v>0.3140984013821986</v>
       </c>
       <c r="F36" t="n">
-        <v>15225</v>
+        <v>14549</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CASIO GWX-5700CS Watch</t>
+          <t>CASIO GW-6900 Watch</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>CASIO GWX-5700CS 時計</t>
+          <t>CASIO GW-6900 時計</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GWX-5600C</t>
+          <t>PRJ-B001B</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="C37" t="n">
-        <v>151.58</v>
+        <v>159.5</v>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06692793452924249</v>
+        <v>0.08832533573828003</v>
       </c>
       <c r="F37" t="n">
-        <v>15916</v>
+        <v>16748</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CASIO GWX-5600C Watch</t>
+          <t>CASIO PRJ-B001B Watch</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>CASIO GWX-5600C 時計</t>
+          <t>CASIO PRJ-B001B 時計</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAC-MAN</t>
+          <t>GWG-1000</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="C38" t="n">
-        <v>137.245</v>
+        <v>349.9</v>
       </c>
       <c r="D38" t="n">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="E38" t="n">
-        <v>0.35902217577005</v>
+        <v>0.3296319952258305</v>
       </c>
       <c r="F38" t="n">
-        <v>14411</v>
+        <v>36740</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CASIO PAC-MAN Watch</t>
+          <t>CASIO GWG-1000 Watch</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>CASIO PAC-MAN 時計</t>
+          <t>CASIO GWG-1000 時計</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SAN-100H</t>
+          <t>LCW-M300D</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="C39" t="n">
-        <v>194.99</v>
+        <v>122.22</v>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1213440937344018</v>
+        <v>0.1576191775347866</v>
       </c>
       <c r="F39" t="n">
-        <v>20474</v>
+        <v>12833</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CASIO SAN-100H Watch</t>
+          <t>CASIO LCW-M300D Watch</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>CASIO SAN-100H 時計</t>
+          <t>CASIO LCW-M300D 時計</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BA-110AH</t>
+          <t>GWG-B1000</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="C40" t="n">
-        <v>112.5</v>
+        <v>647.25</v>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07875788490028851</v>
+        <v>0.1209579980114998</v>
       </c>
       <c r="F40" t="n">
-        <v>11812</v>
+        <v>67961</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CASIO BA-110AH Watch</t>
+          <t>CASIO GWG-B1000 Watch</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CASIO BA-110AH 時計</t>
+          <t>CASIO GWG-B1000 時計</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GW-5000</t>
+          <t>GST-B600D</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C41" t="n">
-        <v>162.445</v>
+        <v>299.995</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5651820492956586</v>
+        <v>0.09883397948001668</v>
       </c>
       <c r="F41" t="n">
-        <v>17057</v>
+        <v>31499</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>CASIO GW-5000 Watch</t>
+          <t>CASIO GST-B600D Watch</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>CASIO GW-5000 時計</t>
+          <t>CASIO GST-B600D 時計</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>OCW-T150</t>
+          <t>GWN-1000B</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="C42" t="n">
-        <v>367.095</v>
+        <v>209.99</v>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1543984551227349</v>
+        <v>0.3177366887630428</v>
       </c>
       <c r="F42" t="n">
-        <v>38545</v>
+        <v>22049</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CASIO OCW-T150 Watch</t>
+          <t>CASIO GWN-1000B Watch</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>CASIO OCW-T150 時計</t>
+          <t>CASIO GWN-1000B 時計</t>
         </is>
       </c>
     </row>
@@ -7353,19 +7418,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>948</v>
+        <v>8150</v>
       </c>
       <c r="C46" t="n">
-        <v>3094</v>
+        <v>13825</v>
       </c>
       <c r="D46" t="n">
-        <v>274.0794936708861</v>
+        <v>287.1568466257668</v>
       </c>
       <c r="E46" t="n">
-        <v>174.235</v>
+        <v>188.285</v>
       </c>
       <c r="F46" t="n">
-        <v>1.32331010699499</v>
+        <v>1.142265631955473</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -7385,19 +7450,19 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>382</v>
+        <v>3222</v>
       </c>
       <c r="C47" t="n">
-        <v>1434</v>
+        <v>5982</v>
       </c>
       <c r="D47" t="n">
-        <v>150.2433246073298</v>
+        <v>170.1578460583488</v>
       </c>
       <c r="E47" t="n">
-        <v>107</v>
+        <v>118.9</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8189154640209514</v>
+        <v>1.238304332694109</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -7413,96 +7478,96 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BABY-G</t>
+          <t>PRO TREK</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>131</v>
+        <v>895</v>
       </c>
       <c r="C48" t="n">
-        <v>421</v>
+        <v>1552</v>
       </c>
       <c r="D48" t="n">
-        <v>107.6080152671756</v>
+        <v>250.1980223463687</v>
       </c>
       <c r="E48" t="n">
-        <v>98.98999999999999</v>
+        <v>217.81</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3385842144069413</v>
+        <v>0.5741220706582265</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CASIO BABY-G Watch</t>
+          <t>CASIO PRO TREK Watch</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>CASIO BABY-G 時計</t>
+          <t>CASIO PRO TREK 時計</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LINEAGE</t>
+          <t>BABY-G</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>63</v>
+        <v>813</v>
       </c>
       <c r="C49" t="n">
-        <v>391</v>
+        <v>1478</v>
       </c>
       <c r="D49" t="n">
-        <v>159.935873015873</v>
+        <v>118.6480196801968</v>
       </c>
       <c r="E49" t="n">
-        <v>165.99</v>
+        <v>109.99</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2332142813945028</v>
+        <v>0.4060583980074541</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CASIO LINEAGE Watch</t>
+          <t>CASIO BABY-G Watch</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>CASIO LINEAGE 時計</t>
+          <t>CASIO BABY-G 時計</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PRO TREK</t>
+          <t>LINEAGE</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>108</v>
+        <v>390</v>
       </c>
       <c r="C50" t="n">
-        <v>384</v>
+        <v>1072</v>
       </c>
       <c r="D50" t="n">
-        <v>253.9287037037037</v>
+        <v>145.8340256410256</v>
       </c>
       <c r="E50" t="n">
-        <v>227</v>
+        <v>146.4</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5430458513955551</v>
+        <v>0.295218426613789</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>CASIO PRO TREK Watch</t>
+          <t>CASIO LINEAGE Watch</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>CASIO PRO TREK 時計</t>
+          <t>CASIO LINEAGE 時計</t>
         </is>
       </c>
     </row>
@@ -7513,19 +7578,19 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>55</v>
+        <v>539</v>
       </c>
       <c r="C51" t="n">
-        <v>308</v>
+        <v>1055</v>
       </c>
       <c r="D51" t="n">
-        <v>515.3669090909091</v>
+        <v>547.3076994434136</v>
       </c>
       <c r="E51" t="n">
-        <v>370.09</v>
+        <v>384.88</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6448109644140421</v>
+        <v>0.879159939140212</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -7545,19 +7610,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>59</v>
+        <v>581</v>
       </c>
       <c r="C52" t="n">
-        <v>159</v>
+        <v>950</v>
       </c>
       <c r="D52" t="n">
-        <v>247.7405084745763</v>
+        <v>252.1387263339071</v>
       </c>
       <c r="E52" t="n">
-        <v>237.19</v>
+        <v>222.07</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4219344408958249</v>
+        <v>0.5585983555883718</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -7577,19 +7642,19 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D53" t="n">
-        <v>167.075</v>
+        <v>181.6342105263158</v>
       </c>
       <c r="E53" t="n">
-        <v>167.075</v>
+        <v>176</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1051922789166542</v>
+        <v>0.3558162164338513</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -7666,19 +7731,19 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>752</v>
+        <v>3522</v>
       </c>
       <c r="C57" t="n">
-        <v>199</v>
+        <v>199.99</v>
       </c>
       <c r="D57" t="n">
-        <v>275</v>
+        <v>2117</v>
       </c>
       <c r="E57" t="n">
-        <v>1.53543239114786</v>
+        <v>1.280882408861052</v>
       </c>
       <c r="F57" t="n">
-        <v>20895</v>
+        <v>20999</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -7698,19 +7763,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>233</v>
+        <v>423</v>
       </c>
       <c r="C58" t="n">
-        <v>249.18</v>
+        <v>243.94</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1390147311339918</v>
+        <v>0.3130994978286422</v>
       </c>
       <c r="F58" t="n">
-        <v>26164</v>
+        <v>25614</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -7726,96 +7791,96 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GW-M5610U</t>
+          <t>GW-5000U</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>205</v>
+        <v>389</v>
       </c>
       <c r="C59" t="n">
-        <v>141.8</v>
+        <v>261.33</v>
       </c>
       <c r="D59" t="n">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09147776093179724</v>
+        <v>0.154077204261232</v>
       </c>
       <c r="F59" t="n">
-        <v>14889</v>
+        <v>27440</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>CASIO GW-M5610U Watch</t>
+          <t>CASIO GW-5000U Watch</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>CASIO GW-M5610U 時計</t>
+          <t>CASIO GW-5000U 時計</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>GW-5000U</t>
+          <t>GW-M5610U</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>163</v>
+        <v>375</v>
       </c>
       <c r="C60" t="n">
-        <v>266.28</v>
+        <v>138.05</v>
       </c>
       <c r="D60" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1864328503503182</v>
+        <v>0.2313476955489966</v>
       </c>
       <c r="F60" t="n">
-        <v>27959</v>
+        <v>14495</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>CASIO GW-5000U Watch</t>
+          <t>CASIO GW-M5610U Watch</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>CASIO GW-5000U 時計</t>
+          <t>CASIO GW-M5610U 時計</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GWX-5600</t>
+          <t>GA-2300</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="C61" t="n">
-        <v>148.995</v>
+        <v>135</v>
       </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E61" t="n">
-        <v>0.07218859264376833</v>
+        <v>0.1207027337598528</v>
       </c>
       <c r="F61" t="n">
-        <v>15644</v>
+        <v>14175</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>CASIO GWX-5600 Watch</t>
+          <t>CASIO GA-2300 Watch</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>CASIO GWX-5600 時計</t>
+          <t>CASIO GA-2300 時計</t>
         </is>
       </c>
     </row>
@@ -7826,19 +7891,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="C62" t="n">
-        <v>414.035</v>
+        <v>407.175</v>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E62" t="n">
-        <v>0.06122556610436409</v>
+        <v>0.05739845912017102</v>
       </c>
       <c r="F62" t="n">
-        <v>43474</v>
+        <v>42753</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -7854,128 +7919,128 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GW-6900</t>
+          <t>GWX-5600</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="C63" t="n">
-        <v>134.83</v>
+        <v>143</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1822326648662289</v>
+        <v>0.1632465129588482</v>
       </c>
       <c r="F63" t="n">
-        <v>14157</v>
+        <v>15015</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>CASIO GW-6900 Watch</t>
+          <t>CASIO GWX-5600 Watch</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>CASIO GW-6900 時計</t>
+          <t>CASIO GWX-5600 時計</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GA-2300</t>
+          <t>GMA-S110BE</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="C64" t="n">
-        <v>130.01</v>
+        <v>182.46</v>
       </c>
       <c r="D64" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1064220277907424</v>
+        <v>0.2075933165976332</v>
       </c>
       <c r="F64" t="n">
-        <v>13651</v>
+        <v>19158</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>CASIO GA-2300 Watch</t>
+          <t>CASIO GMA-S110BE Watch</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>CASIO GA-2300 時計</t>
+          <t>CASIO GMA-S110BE 時計</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GA-V01</t>
+          <t>GW-5000HS</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="C65" t="n">
-        <v>145.35</v>
+        <v>265</v>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E65" t="n">
-        <v>0.09905650141370316</v>
+        <v>0.166005731240826</v>
       </c>
       <c r="F65" t="n">
-        <v>15262</v>
+        <v>27825</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>CASIO GA-V01 Watch</t>
+          <t>CASIO GW-5000HS Watch</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>CASIO GA-V01 時計</t>
+          <t>CASIO GW-5000HS 時計</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GWX-5700CS</t>
+          <t>GMW-B5000D</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="C66" t="n">
-        <v>145</v>
+        <v>397.595</v>
       </c>
       <c r="D66" t="n">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08655881277145434</v>
+        <v>0.2110012086638024</v>
       </c>
       <c r="F66" t="n">
-        <v>15225</v>
+        <v>41747</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>CASIO GWX-5700CS Watch</t>
+          <t>CASIO GMW-B5000D Watch</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>CASIO GWX-5700CS 時計</t>
+          <t>CASIO GMW-B5000D 時計</t>
         </is>
       </c>
     </row>
@@ -8043,19 +8108,19 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C70" t="n">
-        <v>60.195</v>
+        <v>57.945</v>
       </c>
       <c r="D70" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6030621922211372</v>
+        <v>0.442797599447204</v>
       </c>
       <c r="F70" t="n">
-        <v>6320</v>
+        <v>6084</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -8075,19 +8140,19 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="C71" t="n">
-        <v>88.995</v>
+        <v>86.19499999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08997042205886646</v>
+        <v>0.1498430400699864</v>
       </c>
       <c r="F71" t="n">
-        <v>9344</v>
+        <v>9050</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -8103,32 +8168,32 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WVA-M630B</t>
+          <t>PAC-MAN</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="C72" t="n">
-        <v>81.65000000000001</v>
+        <v>131.485</v>
       </c>
       <c r="D72" t="n">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="E72" t="n">
-        <v>0.06612212660504417</v>
+        <v>0.4234475666869864</v>
       </c>
       <c r="F72" t="n">
-        <v>8573</v>
+        <v>13806</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>CASIO WVA-M630B Watch</t>
+          <t>CASIO PAC-MAN Watch</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>CASIO WVA-M630B 時計</t>
+          <t>CASIO PAC-MAN 時計</t>
         </is>
       </c>
     </row>
@@ -8139,19 +8204,19 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="C73" t="n">
-        <v>90.715</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E73" t="n">
-        <v>0.08396987915910994</v>
+        <v>0.1683311258061918</v>
       </c>
       <c r="F73" t="n">
-        <v>9525</v>
+        <v>9326</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -8171,19 +8236,19 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="C74" t="n">
-        <v>94.015</v>
+        <v>90.48999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2451129094320324</v>
+        <v>0.2149402052686936</v>
       </c>
       <c r="F74" t="n">
-        <v>9872</v>
+        <v>9501</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -8199,167 +8264,167 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ABL-100WE</t>
+          <t>WVA-M630B</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="C75" t="n">
-        <v>74.935</v>
+        <v>79</v>
       </c>
       <c r="D75" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05827582252733764</v>
+        <v>0.1310432139709222</v>
       </c>
       <c r="F75" t="n">
-        <v>7868</v>
+        <v>8295</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>CASIO ABL-100WE Watch</t>
+          <t>CASIO WVA-M630B Watch</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>CASIO ABL-100WE 時計</t>
+          <t>CASIO WVA-M630B 時計</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PAC-MAN</t>
+          <t>ABL-100WE</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="C76" t="n">
-        <v>137.245</v>
+        <v>87.13</v>
       </c>
       <c r="D76" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E76" t="n">
-        <v>0.35902217577005</v>
+        <v>0.1994976522803425</v>
       </c>
       <c r="F76" t="n">
-        <v>14411</v>
+        <v>9149</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>CASIO PAC-MAN Watch</t>
+          <t>CASIO ABL-100WE Watch</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>CASIO PAC-MAN 時計</t>
+          <t>CASIO ABL-100WE 時計</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SAN-100H</t>
+          <t>WV-59R</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>194.99</v>
+        <v>56.21</v>
       </c>
       <c r="D77" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1213440937344018</v>
+        <v>0.1490120176930873</v>
       </c>
       <c r="F77" t="n">
-        <v>20474</v>
+        <v>5902</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>CASIO SAN-100H Watch</t>
+          <t>CASIO WV-59R Watch</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>CASIO SAN-100H 時計</t>
+          <t>CASIO WV-59R 時計</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MTP-M305D-1A</t>
+          <t>MTP-1302D</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C78" t="n">
-        <v>95.42</v>
+        <v>59.75</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>0.3846219845015286</v>
       </c>
       <c r="F78" t="n">
-        <v>10019</v>
+        <v>6274</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>CASIO MTP-M305D-1A Watch</t>
+          <t>CASIO MTP-1302D Watch</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>CASIO MTP-M305D-1A 時計</t>
+          <t>CASIO MTP-1302D 時計</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CA-500WE-1A</t>
+          <t>MTP-1370D</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C79" t="n">
-        <v>82</v>
+        <v>77.44</v>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E79" t="n">
-        <v>0.03811187557854807</v>
+        <v>0.1721861207759175</v>
       </c>
       <c r="F79" t="n">
-        <v>8610</v>
+        <v>8131</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>CASIO CA-500WE-1A Watch</t>
+          <t>CASIO MTP-1370D Watch</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>CASIO CA-500WE-1A 時計</t>
+          <t>CASIO MTP-1370D 時計</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BABY-G - Top10型番</t>
+          <t>PRO TREK - Top10型番</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -8416,327 +8481,327 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BGD-5650</t>
+          <t>PRW-35LD</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C83" t="n">
-        <v>124.74</v>
+        <v>264.35</v>
       </c>
       <c r="D83" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E83" t="n">
-        <v>0.08801083266951587</v>
+        <v>0.07752057185978167</v>
       </c>
       <c r="F83" t="n">
-        <v>13098</v>
+        <v>27757</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>CASIO BGD-5650 Watch</t>
+          <t>CASIO PRW-35LD Watch</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>CASIO BGD-5650 時計</t>
+          <t>CASIO PRW-35LD 時計</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BA-110AH</t>
+          <t>PRJ-B001B</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="C84" t="n">
-        <v>112.5</v>
+        <v>159.635</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E84" t="n">
-        <v>0.07875788490028851</v>
+        <v>0.08610385428607134</v>
       </c>
       <c r="F84" t="n">
-        <v>11812</v>
+        <v>16762</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>CASIO BA-110AH Watch</t>
+          <t>CASIO PRJ-B001B Watch</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>CASIO BA-110AH 時計</t>
+          <t>CASIO PRJ-B001B 時計</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BGA-280</t>
+          <t>PRJ-B001</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C85" t="n">
-        <v>91.67</v>
+        <v>158</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E85" t="n">
-        <v>0.005616757032466385</v>
+        <v>0.1333762865126006</v>
       </c>
       <c r="F85" t="n">
-        <v>9625</v>
+        <v>16590</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>CASIO BGA-280 Watch</t>
+          <t>CASIO PRJ-B001 Watch</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>CASIO BGA-280 時計</t>
+          <t>CASIO PRJ-B001 時計</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BGA-150FL</t>
+          <t>PRW-61LD</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C86" t="n">
-        <v>92</v>
+        <v>327</v>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01575537082769671</v>
+        <v>0.09347880189846083</v>
       </c>
       <c r="F86" t="n">
-        <v>9660</v>
+        <v>34335</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>CASIO BGA-150FL Watch</t>
+          <t>CASIO PRW-61LD Watch</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>CASIO BGA-150FL 時計</t>
+          <t>CASIO PRW-61LD 時計</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BGD-565US</t>
+          <t>PRW-35Y</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C87" t="n">
-        <v>77.19</v>
+        <v>243.87</v>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E87" t="n">
-        <v>0.09125826626870451</v>
+        <v>0.06269319613773465</v>
       </c>
       <c r="F87" t="n">
-        <v>8105</v>
+        <v>25606</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>CASIO BGD-565US Watch</t>
+          <t>CASIO PRW-35Y Watch</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>CASIO BGD-565US 時計</t>
+          <t>CASIO PRW-35Y 時計</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BA-110YK</t>
+          <t>WSD-F20</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C88" t="n">
-        <v>129.96</v>
+        <v>142.5</v>
       </c>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1183780699644079</v>
+        <v>0.2959468866377645</v>
       </c>
       <c r="F88" t="n">
-        <v>13646</v>
+        <v>14962</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>CASIO BA-110YK Watch</t>
+          <t>CASIO WSD-F20 Watch</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>CASIO BA-110YK 時計</t>
+          <t>CASIO WSD-F20 時計</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BA-130</t>
+          <t>PRG-340</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C89" t="n">
-        <v>97.77500000000001</v>
+        <v>164.065</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1184027879123547</v>
+        <v>0.1016445113706517</v>
       </c>
       <c r="F89" t="n">
-        <v>10266</v>
+        <v>17227</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>CASIO BA-130 Watch</t>
+          <t>CASIO PRG-340 Watch</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>CASIO BA-130 時計</t>
+          <t>CASIO PRG-340 時計</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BGD-10KKM</t>
+          <t>PRW-31YT</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C90" t="n">
-        <v>125.54</v>
+        <v>400.44</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E90" t="n">
-        <v>0.06802612713079501</v>
+        <v>0.05783689300322448</v>
       </c>
       <c r="F90" t="n">
-        <v>13182</v>
+        <v>42046</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>CASIO BGD-10KKM Watch</t>
+          <t>CASIO PRW-31YT Watch</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>CASIO BGD-10KKM 時計</t>
+          <t>CASIO PRW-31YT 時計</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BGD-565U</t>
+          <t>PRW-35TLD</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C91" t="n">
-        <v>76</v>
+        <v>467.34</v>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0847999987702712</v>
+        <v>0.0913048418086221</v>
       </c>
       <c r="F91" t="n">
-        <v>7980</v>
+        <v>49071</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>CASIO BGD-565U Watch</t>
+          <t>CASIO PRW-35TLD Watch</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>CASIO BGD-565U 時計</t>
+          <t>CASIO PRW-35TLD 時計</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BSA-B100</t>
+          <t>PRW-6900Y</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C92" t="n">
-        <v>102.99</v>
+        <v>340.83</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>0.03878993165920348</v>
       </c>
       <c r="F92" t="n">
-        <v>10814</v>
+        <v>35787</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>CASIO BSA-B100 Watch</t>
+          <t>CASIO PRW-6900Y Watch</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>CASIO BSA-B100 時計</t>
+          <t>CASIO PRW-6900Y 時計</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LINEAGE - Top10型番</t>
+          <t>BABY-G - Top10型番</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -8793,327 +8858,327 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>LCW-M300D</t>
+          <t>BGD-5650</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="C96" t="n">
-        <v>127.44</v>
+        <v>125.33</v>
       </c>
       <c r="D96" t="n">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1081139087767841</v>
+        <v>0.1401979744484445</v>
       </c>
       <c r="F96" t="n">
-        <v>13381</v>
+        <v>13160</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>CASIO LCW-M300D Watch</t>
+          <t>CASIO BGD-5650 Watch</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>CASIO LCW-M300D 時計</t>
+          <t>CASIO BGD-5650 時計</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>LCW-M100DE</t>
+          <t>BA-110AH</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C97" t="n">
-        <v>125.59</v>
+        <v>112.915</v>
       </c>
       <c r="D97" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E97" t="n">
-        <v>0.04289084201186563</v>
+        <v>0.07245372261382825</v>
       </c>
       <c r="F97" t="n">
-        <v>13187</v>
+        <v>11856</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>CASIO LCW-M100DE Watch</t>
+          <t>CASIO BA-110AH Watch</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>CASIO LCW-M100DE 時計</t>
+          <t>CASIO BA-110AH 時計</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LIW-M700D</t>
+          <t>BA-110YK</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C98" t="n">
-        <v>200.925</v>
+        <v>109.66</v>
       </c>
       <c r="D98" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E98" t="n">
-        <v>0.05591420319373908</v>
+        <v>0.1380975859061146</v>
       </c>
       <c r="F98" t="n">
-        <v>21097</v>
+        <v>11514</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>CASIO LIW-M700D Watch</t>
+          <t>CASIO BA-110YK Watch</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>CASIO LIW-M700D 時計</t>
+          <t>CASIO BA-110YK 時計</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LCW-M170D</t>
+          <t>BGD-565SC</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C99" t="n">
-        <v>154.9</v>
+        <v>82</v>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E99" t="n">
-        <v>0.06205122528241679</v>
+        <v>0.09958119664059341</v>
       </c>
       <c r="F99" t="n">
-        <v>16264</v>
+        <v>8610</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>CASIO LCW-M170D Watch</t>
+          <t>CASIO BGD-565SC Watch</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>CASIO LCW-M170D 時計</t>
+          <t>CASIO BGD-565SC 時計</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>LCW-M170TD</t>
+          <t>BGD-10KKM</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C100" t="n">
-        <v>202.37</v>
+        <v>126.765</v>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E100" t="n">
-        <v>0.03026992569720845</v>
+        <v>0.08340103798155803</v>
       </c>
       <c r="F100" t="n">
-        <v>21249</v>
+        <v>13310</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>CASIO LCW-M170TD Watch</t>
+          <t>CASIO BGD-10KKM Watch</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>CASIO LCW-M170TD 時計</t>
+          <t>CASIO BGD-10KKM 時計</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>LCW-M170DB</t>
+          <t>BGD-565U</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C101" t="n">
-        <v>207.465</v>
+        <v>76</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E101" t="n">
-        <v>0.05102065408623145</v>
+        <v>0.1477754605674125</v>
       </c>
       <c r="F101" t="n">
-        <v>21784</v>
+        <v>7980</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>CASIO LCW-M170DB Watch</t>
+          <t>CASIO BGD-565U Watch</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>CASIO LCW-M170DB 時計</t>
+          <t>CASIO BGD-565U 時計</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>LIW-M610D</t>
+          <t>BGA-150FL</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C102" t="n">
-        <v>162.575</v>
+        <v>93</v>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E102" t="n">
-        <v>0.03970475165308318</v>
+        <v>0.07688928671901371</v>
       </c>
       <c r="F102" t="n">
-        <v>17070</v>
+        <v>9765</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>CASIO LIW-M610D Watch</t>
+          <t>CASIO BGA-150FL Watch</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>CASIO LIW-M610D 時計</t>
+          <t>CASIO BGA-150FL 時計</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>LCW-M300DB</t>
+          <t>BSA-B100</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C103" t="n">
-        <v>200.495</v>
+        <v>111.795</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1172348437616898</v>
+        <v>0.1874618008355858</v>
       </c>
       <c r="F103" t="n">
-        <v>21052</v>
+        <v>11738</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>CASIO LCW-M300DB Watch</t>
+          <t>CASIO BSA-B100 Watch</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>CASIO LCW-M300DB 時計</t>
+          <t>CASIO BSA-B100 時計</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LCW-100T</t>
+          <t>BGA-280</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C104" t="n">
-        <v>86.255</v>
+        <v>91.965</v>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1306011245724886</v>
+        <v>0.1327777088441493</v>
       </c>
       <c r="F104" t="n">
-        <v>9057</v>
+        <v>9656</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>CASIO LCW-100T Watch</t>
+          <t>CASIO BGA-280 Watch</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>CASIO LCW-100T 時計</t>
+          <t>CASIO BGA-280 時計</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LCW-M200</t>
+          <t>BG-169CH</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C105" t="n">
-        <v>96.82499999999999</v>
+        <v>85.935</v>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2378001549186677</v>
+        <v>0.2436647276378088</v>
       </c>
       <c r="F105" t="n">
-        <v>10167</v>
+        <v>9023</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>CASIO LCW-M200 Watch</t>
+          <t>CASIO BG-169CH Watch</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>CASIO LCW-M200 時計</t>
+          <t>CASIO BG-169CH 時計</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PRO TREK - Top10型番</t>
+          <t>LINEAGE - Top10型番</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -9170,320 +9235,320 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>PRW-35LD</t>
+          <t>LCW-M100DE</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="C109" t="n">
-        <v>261.39</v>
+        <v>125.075</v>
       </c>
       <c r="D109" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E109" t="n">
-        <v>0.01860042961330535</v>
+        <v>0.1146045465340765</v>
       </c>
       <c r="F109" t="n">
-        <v>27446</v>
+        <v>13133</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>CASIO PRW-35LD Watch</t>
+          <t>CASIO LCW-M100DE Watch</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>CASIO PRW-35LD 時計</t>
+          <t>CASIO LCW-M100DE 時計</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PRJ-B001B</t>
+          <t>LCW-M300D</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="C110" t="n">
-        <v>155.605</v>
+        <v>122.81</v>
       </c>
       <c r="D110" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E110" t="n">
-        <v>0.07479522350262893</v>
+        <v>0.1493358505695746</v>
       </c>
       <c r="F110" t="n">
-        <v>16339</v>
+        <v>12895</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>CASIO PRJ-B001B Watch</t>
+          <t>CASIO LCW-M300D Watch</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>CASIO PRJ-B001B 時計</t>
+          <t>CASIO LCW-M300D 時計</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PRG-340</t>
+          <t>LCW-M170TD</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C111" t="n">
-        <v>165.37</v>
+        <v>189.585</v>
       </c>
       <c r="D111" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0610336142598542</v>
+        <v>0.1353031782090142</v>
       </c>
       <c r="F111" t="n">
-        <v>17364</v>
+        <v>19906</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>CASIO PRG-340 Watch</t>
+          <t>CASIO LCW-M170TD Watch</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>CASIO PRG-340 時計</t>
+          <t>CASIO LCW-M170TD 時計</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PRJ-B001</t>
+          <t>LIW-M700D</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C112" t="n">
-        <v>150.365</v>
+        <v>198.99</v>
       </c>
       <c r="D112" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E112" t="n">
-        <v>0.09475557019608813</v>
+        <v>0.1542190166730812</v>
       </c>
       <c r="F112" t="n">
-        <v>15788</v>
+        <v>20894</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>CASIO PRJ-B001 Watch</t>
+          <t>CASIO LIW-M700D Watch</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>CASIO PRJ-B001 時計</t>
+          <t>CASIO LIW-M700D 時計</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PRW-61LD</t>
+          <t>LCW-M170D</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C113" t="n">
-        <v>324.67</v>
+        <v>153.42</v>
       </c>
       <c r="D113" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E113" t="n">
-        <v>0.03885020134112369</v>
+        <v>0.1054992572727365</v>
       </c>
       <c r="F113" t="n">
-        <v>34090</v>
+        <v>16109</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>CASIO PRW-61LD Watch</t>
+          <t>CASIO LCW-M170D Watch</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>CASIO PRW-61LD 時計</t>
+          <t>CASIO LCW-M170D 時計</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>WSD-F20</t>
+          <t>LCW-M170DB</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C114" t="n">
-        <v>143.72</v>
+        <v>191.545</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07041469524074592</v>
+        <v>0.1262445488788705</v>
       </c>
       <c r="F114" t="n">
-        <v>15091</v>
+        <v>20112</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>CASIO WSD-F20 Watch</t>
+          <t>CASIO LCW-M170DB Watch</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>CASIO WSD-F20 時計</t>
+          <t>CASIO LCW-M170DB 時計</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PRW-B1000</t>
+          <t>LIW-M610D</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C115" t="n">
-        <v>416.69</v>
+        <v>161.5</v>
       </c>
       <c r="D115" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0377426243488615</v>
+        <v>0.1185968418471107</v>
       </c>
       <c r="F115" t="n">
-        <v>43752</v>
+        <v>16958</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>CASIO PRW-B1000 Watch</t>
+          <t>CASIO LIW-M610D Watch</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>CASIO PRW-B1000 時計</t>
+          <t>CASIO LIW-M610D 時計</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PRJ-B001B-2</t>
+          <t>LCW-M300DB</t>
         </is>
       </c>
       <c r="B116" t="n">
+        <v>12</v>
+      </c>
+      <c r="C116" t="n">
+        <v>176.99</v>
+      </c>
+      <c r="D116" t="n">
         <v>9</v>
       </c>
-      <c r="C116" t="n">
-        <v>159.21</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1</v>
-      </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>0.1775809660075562</v>
       </c>
       <c r="F116" t="n">
-        <v>16717</v>
+        <v>18584</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>CASIO PRJ-B001B-2 Watch</t>
+          <t>CASIO LCW-M300DB Watch</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>CASIO PRJ-B001B-2 時計</t>
+          <t>CASIO LCW-M300DB 時計</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PRG-240</t>
+          <t>LIW-M610DB</t>
         </is>
       </c>
       <c r="B117" t="n">
+        <v>12</v>
+      </c>
+      <c r="C117" t="n">
+        <v>197.12</v>
+      </c>
+      <c r="D117" t="n">
         <v>8</v>
       </c>
-      <c r="C117" t="n">
-        <v>161.6</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1</v>
-      </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>0.169934310699672</v>
       </c>
       <c r="F117" t="n">
-        <v>16968</v>
+        <v>20698</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>CASIO PRG-240 Watch</t>
+          <t>CASIO LIW-M610DB Watch</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>CASIO PRG-240 時計</t>
+          <t>CASIO LIW-M610DB 時計</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PRW-61ANS</t>
+          <t>LIW-120DEJ</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>8</v>
       </c>
       <c r="C118" t="n">
-        <v>353.395</v>
+        <v>141.045</v>
       </c>
       <c r="D118" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E118" t="n">
-        <v>0.04237742057873382</v>
+        <v>0.06437414331316425</v>
       </c>
       <c r="F118" t="n">
-        <v>37106</v>
+        <v>14810</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>CASIO PRW-61ANS Watch</t>
+          <t>CASIO LIW-120DEJ Watch</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>CASIO PRW-61ANS 時計</t>
+          <t>CASIO LIW-120DEJ 時計</t>
         </is>
       </c>
     </row>
@@ -9551,19 +9616,19 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="C122" t="n">
-        <v>340.95</v>
+        <v>337.02</v>
       </c>
       <c r="D122" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E122" t="n">
-        <v>0.128504702926722</v>
+        <v>0.1047989563747197</v>
       </c>
       <c r="F122" t="n">
-        <v>35800</v>
+        <v>35387</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -9583,19 +9648,19 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="C123" t="n">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="D123" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2084256454867577</v>
+        <v>0.2154348805648263</v>
       </c>
       <c r="F123" t="n">
-        <v>37800</v>
+        <v>35910</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -9615,19 +9680,19 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C124" t="n">
-        <v>367.095</v>
+        <v>306</v>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1543984551227349</v>
+        <v>0.2241177098715724</v>
       </c>
       <c r="F124" t="n">
-        <v>38545</v>
+        <v>32130</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -9643,224 +9708,224 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>OCW-T2600J</t>
+          <t>OCW-S400</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C125" t="n">
-        <v>579.95</v>
+        <v>791</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>0.08892874361690982</v>
       </c>
       <c r="F125" t="n">
-        <v>60895</v>
+        <v>83055</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>CASIO OCW-T2600J Watch</t>
+          <t>CASIO OCW-S400 Watch</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>CASIO OCW-T2600J 時計</t>
+          <t>CASIO OCW-S400 時計</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>OCW-T2600</t>
+          <t>OCW-T200SB</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C126" t="n">
-        <v>521</v>
+        <v>389.99</v>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E126" t="n">
-        <v>0.1454727378156541</v>
+        <v>0.09789050055019174</v>
       </c>
       <c r="F126" t="n">
-        <v>54705</v>
+        <v>40949</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>CASIO OCW-T2600 Watch</t>
+          <t>CASIO OCW-T200SB Watch</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>CASIO OCW-T2600 時計</t>
+          <t>CASIO OCW-T200SB 時計</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>OCW-S400RA</t>
+          <t>OCW-T2600</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C127" t="n">
-        <v>878.99</v>
+        <v>475</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>0.2448306344243447</v>
       </c>
       <c r="F127" t="n">
-        <v>92294</v>
+        <v>49875</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>CASIO OCW-S400RA Watch</t>
+          <t>CASIO OCW-T2600 Watch</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>CASIO OCW-S400RA 時計</t>
+          <t>CASIO OCW-T2600 時計</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>OCW-S7000B</t>
+          <t>OCW-M700</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C128" t="n">
-        <v>1167.16</v>
+        <v>169.99</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>0.1015226493496658</v>
       </c>
       <c r="F128" t="n">
-        <v>122552</v>
+        <v>17849</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>CASIO OCW-S7000B Watch</t>
+          <t>CASIO OCW-M700 Watch</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>CASIO OCW-S7000B 時計</t>
+          <t>CASIO OCW-M700 時計</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>OCW-S1000</t>
+          <t>OCW-S7000D</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C129" t="n">
-        <v>224.09</v>
+        <v>986.11</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E129" t="n">
-        <v>0.2140211522156277</v>
+        <v>0.1178656205306157</v>
       </c>
       <c r="F129" t="n">
-        <v>23529</v>
+        <v>103542</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>CASIO OCW-S1000 Watch</t>
+          <t>CASIO OCW-S7000D Watch</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>CASIO OCW-S1000 時計</t>
+          <t>CASIO OCW-S7000D 時計</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>OCW-S400</t>
+          <t>OCW-S100B</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C130" t="n">
-        <v>718.64</v>
+        <v>392.44</v>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1006901925859958</v>
+        <v>0.1827613791280466</v>
       </c>
       <c r="F130" t="n">
-        <v>75457</v>
+        <v>41206</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>CASIO OCW-S400 Watch</t>
+          <t>CASIO OCW-S100B Watch</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>CASIO OCW-S400 時計</t>
+          <t>CASIO OCW-S100B 時計</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>OCW-S7000D</t>
+          <t>OCW-600</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C131" t="n">
-        <v>995.2</v>
+        <v>135.895</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>0.1175973709560971</v>
       </c>
       <c r="F131" t="n">
-        <v>104496</v>
+        <v>14269</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>CASIO OCW-S7000D Watch</t>
+          <t>CASIO OCW-600 Watch</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>CASIO OCW-S7000D 時計</t>
+          <t>CASIO OCW-600 時計</t>
         </is>
       </c>
     </row>
@@ -9924,320 +9989,320 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>EQB-501XDB</t>
+          <t>EFK-100YD</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C135" t="n">
-        <v>267.69</v>
+        <v>306.99</v>
       </c>
       <c r="D135" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E135" t="n">
-        <v>0.03745129380087046</v>
+        <v>0.07336697934665644</v>
       </c>
       <c r="F135" t="n">
-        <v>28107</v>
+        <v>32234</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>CASIO EQB-501XDB Watch</t>
+          <t>CASIO EFK-100YD Watch</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>CASIO EQB-501XDB 時計</t>
+          <t>CASIO EFK-100YD 時計</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>EFK-100XPB</t>
+          <t>EFR-S108DJ</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C136" t="n">
-        <v>426.565</v>
+        <v>139.77</v>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E136" t="n">
-        <v>0.09101779876694313</v>
+        <v>0.1190532270812689</v>
       </c>
       <c r="F136" t="n">
-        <v>44789</v>
+        <v>14676</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>CASIO EFK-100XPB Watch</t>
+          <t>CASIO EFR-S108DJ Watch</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>CASIO EFK-100XPB 時計</t>
+          <t>CASIO EFR-S108DJ 時計</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>EFS-S640ZE</t>
+          <t>EFK-100XPB</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C137" t="n">
-        <v>275.83</v>
+        <v>472.45</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>0.1295367069491364</v>
       </c>
       <c r="F137" t="n">
-        <v>28962</v>
+        <v>49607</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>CASIO EFS-S640ZE Watch</t>
+          <t>CASIO EFK-100XPB Watch</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>CASIO EFS-S640ZE 時計</t>
+          <t>CASIO EFK-100XPB 時計</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>EFK-100YCD</t>
+          <t>EQB-501XDB</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C138" t="n">
-        <v>298.51</v>
+        <v>243.99</v>
       </c>
       <c r="D138" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E138" t="n">
-        <v>0.03253891671466599</v>
+        <v>0.1164168923261137</v>
       </c>
       <c r="F138" t="n">
-        <v>31344</v>
+        <v>25619</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>CASIO EFK-100YCD Watch</t>
+          <t>CASIO EQB-501XDB Watch</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>CASIO EFK-100YCD 時計</t>
+          <t>CASIO EQB-501XDB 時計</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>EFV-640DJ</t>
+          <t>EFK-100YCD</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C139" t="n">
-        <v>120.735</v>
+        <v>320</v>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E139" t="n">
-        <v>0.1346337019091399</v>
+        <v>0.08314389483141729</v>
       </c>
       <c r="F139" t="n">
-        <v>12677</v>
+        <v>33600</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>CASIO EFV-640DJ Watch</t>
+          <t>CASIO EFK-100YCD Watch</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>CASIO EFV-640DJ 時計</t>
+          <t>CASIO EFK-100YCD 時計</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ECB-S10NIS</t>
+          <t>EQB-501XD</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C140" t="n">
-        <v>285</v>
+        <v>237.49</v>
       </c>
       <c r="D140" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E140" t="n">
-        <v>0.04410980654917319</v>
+        <v>0.1369031564462317</v>
       </c>
       <c r="F140" t="n">
-        <v>29925</v>
+        <v>24936</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>CASIO ECB-S10NIS Watch</t>
+          <t>CASIO EQB-501XD Watch</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>CASIO ECB-S10NIS 時計</t>
+          <t>CASIO EQB-501XD 時計</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>EQB-501XD</t>
+          <t>ECB-S10NIS</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C141" t="n">
-        <v>255.94</v>
+        <v>318.795</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>0.2770623382088683</v>
       </c>
       <c r="F141" t="n">
-        <v>26874</v>
+        <v>33473</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>CASIO EQB-501XD Watch</t>
+          <t>CASIO ECB-S10NIS Watch</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>CASIO EQB-501XD 時計</t>
+          <t>CASIO ECB-S10NIS 時計</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>EFK-100YD</t>
+          <t>ECB-2000HR</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C142" t="n">
-        <v>279.87</v>
+        <v>430</v>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E142" t="n">
-        <v>0.01025476113910031</v>
+        <v>0.1332012614369957</v>
       </c>
       <c r="F142" t="n">
-        <v>29386</v>
+        <v>45150</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>CASIO EFK-100YD Watch</t>
+          <t>CASIO ECB-2000HR Watch</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>CASIO EFK-100YD 時計</t>
+          <t>CASIO ECB-2000HR 時計</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>EFR-S108DJ</t>
+          <t>EFS-S570YD</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C143" t="n">
-        <v>136.665</v>
+        <v>182.96</v>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E143" t="n">
-        <v>0.01708557421431964</v>
+        <v>0.1047445931378934</v>
       </c>
       <c r="F143" t="n">
-        <v>14350</v>
+        <v>19211</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>CASIO EFR-S108DJ Watch</t>
+          <t>CASIO EFS-S570YD Watch</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>CASIO EFR-S108DJ 時計</t>
+          <t>CASIO EFS-S570YD 時計</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ECB-S10YD</t>
+          <t>EFS-S640ZE</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C144" t="n">
-        <v>161.17</v>
+        <v>275.915</v>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E144" t="n">
-        <v>0.05689644474778185</v>
+        <v>0.05843876973133137</v>
       </c>
       <c r="F144" t="n">
-        <v>16923</v>
+        <v>28971</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>CASIO ECB-S10YD Watch</t>
+          <t>CASIO EFS-S640ZE Watch</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>CASIO ECB-S10YD 時計</t>
+          <t>CASIO EFS-S640ZE 時計</t>
         </is>
       </c>
     </row>
@@ -10304,19 +10369,19 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>180</v>
+        <v>1245</v>
       </c>
       <c r="C148" t="n">
-        <v>817</v>
+        <v>2595</v>
       </c>
       <c r="D148" t="n">
-        <v>213.3677777777778</v>
+        <v>245.6826345381526</v>
       </c>
       <c r="E148" t="n">
-        <v>148.665</v>
+        <v>171.95</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8340502851001665</v>
+        <v>1.036218011595274</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -10336,19 +10401,19 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>115</v>
+        <v>862</v>
       </c>
       <c r="C149" t="n">
-        <v>294</v>
+        <v>1421</v>
       </c>
       <c r="D149" t="n">
-        <v>342.8608695652174</v>
+        <v>322.1479002320186</v>
       </c>
       <c r="E149" t="n">
-        <v>196.8</v>
+        <v>191.635</v>
       </c>
       <c r="F149" t="n">
-        <v>1.998440131569078</v>
+        <v>1.491757800626599</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -10368,19 +10433,19 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C150" t="n">
-        <v>95</v>
+        <v>608</v>
       </c>
       <c r="D150" t="n">
-        <v>426.3479069767442</v>
+        <v>465.6293039443156</v>
       </c>
       <c r="E150" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F150" t="n">
-        <v>1.124604079643665</v>
+        <v>1.17620864986717</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -10400,19 +10465,19 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C151" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D151" t="n">
-        <v>397.74</v>
+        <v>268.9554166666667</v>
       </c>
       <c r="E151" t="n">
-        <v>345.885</v>
+        <v>251.49</v>
       </c>
       <c r="F151" t="n">
-        <v>0.3494442195947616</v>
+        <v>0.3751958696510682</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -10432,19 +10497,19 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D152" t="n">
-        <v>144.5</v>
+        <v>163.0788888888889</v>
       </c>
       <c r="E152" t="n">
-        <v>144.5</v>
+        <v>163.995</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1280276816608996</v>
+        <v>0.1485580826270178</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -10460,587 +10525,826 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ドラゴンボール</t>
+          <t>ポケモン</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D153" t="n">
-        <v>222</v>
+        <v>185.840625</v>
       </c>
       <c r="E153" t="n">
-        <v>222</v>
+        <v>174.5</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>0.2824985909183501</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>CASIO ドラゴンボール Watch</t>
+          <t>CASIO ポケモン Watch</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>CASIO ドラゴンボール 時計</t>
+          <t>CASIO ポケモン 時計</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ポケモン</t>
+          <t>ワンピース</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D154" t="n">
-        <v>284.99</v>
+        <v>357.538</v>
       </c>
       <c r="E154" t="n">
-        <v>284.99</v>
+        <v>373.99</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>0.3715656754126251</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>CASIO ポケモン Watch</t>
+          <t>CASIO ワンピース Watch</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>CASIO ポケモン 時計</t>
+          <t>CASIO ワンピース 時計</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ドラゴンボール</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>9</v>
+      </c>
+      <c r="C155" t="n">
+        <v>14</v>
+      </c>
+      <c r="D155" t="n">
+        <v>272.9077777777778</v>
+      </c>
+      <c r="E155" t="n">
+        <v>260</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.1679370448637778</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>CASIO ドラゴンボール Watch</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>CASIO ドラゴンボール 時計</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>駆動方式別統計</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
+          <t>ディズニー</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>10</v>
+      </c>
+      <c r="C156" t="n">
+        <v>10</v>
+      </c>
+      <c r="D156" t="n">
+        <v>225.06</v>
+      </c>
+      <c r="E156" t="n">
+        <v>227.975</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.3410869560108469</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>CASIO ディズニー Watch</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>CASIO ディズニー 時計</t>
+        </is>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>駆動方式</t>
-        </is>
-      </c>
-      <c r="B157" s="1" t="inlineStr">
-        <is>
-          <t>出品数</t>
-        </is>
-      </c>
-      <c r="C157" s="1" t="inlineStr">
-        <is>
-          <t>販売数</t>
-        </is>
-      </c>
-      <c r="D157" s="1" t="inlineStr">
-        <is>
-          <t>平均価格</t>
-        </is>
-      </c>
-      <c r="E157" s="1" t="inlineStr">
-        <is>
-          <t>中央値</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>不明</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>765</v>
-      </c>
-      <c r="C158" t="n">
-        <v>2590</v>
-      </c>
-      <c r="D158" t="n">
-        <v>250.8123267973856</v>
-      </c>
-      <c r="E158" t="n">
-        <v>165</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ジブリ</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>398.4</v>
+      </c>
+      <c r="E157" t="n">
+        <v>398.4</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>CASIO ジブリ Watch</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>CASIO ジブリ 時計</t>
+        </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ソーラー</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>552</v>
-      </c>
-      <c r="C159" t="n">
-        <v>2466</v>
-      </c>
-      <c r="D159" t="n">
-        <v>279.41125</v>
-      </c>
-      <c r="E159" t="n">
-        <v>184.995</v>
-      </c>
+          <t>駆動方式別統計</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>デジタル</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>253</v>
-      </c>
-      <c r="C160" t="n">
-        <v>701</v>
-      </c>
-      <c r="D160" t="n">
-        <v>152.3760869565217</v>
-      </c>
-      <c r="E160" t="n">
-        <v>126</v>
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>駆動方式</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="inlineStr">
+        <is>
+          <t>出品数</t>
+        </is>
+      </c>
+      <c r="C160" s="1" t="inlineStr">
+        <is>
+          <t>販売数</t>
+        </is>
+      </c>
+      <c r="D160" s="1" t="inlineStr">
+        <is>
+          <t>平均価格</t>
+        </is>
+      </c>
+      <c r="E160" s="1" t="inlineStr">
+        <is>
+          <t>中央値</t>
+        </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>クオーツ</t>
+          <t>不明</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>160</v>
+        <v>6531</v>
       </c>
       <c r="C161" t="n">
-        <v>401</v>
+        <v>11257</v>
       </c>
       <c r="D161" t="n">
-        <v>142.9900625</v>
+        <v>259.5402725463176</v>
       </c>
       <c r="E161" t="n">
-        <v>119.39</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>スマートウォッチ</t>
+          <t>ソーラー</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>11</v>
+        <v>4578</v>
       </c>
       <c r="C162" t="n">
-        <v>27</v>
+        <v>8889</v>
       </c>
       <c r="D162" t="n">
-        <v>214.6118181818182</v>
+        <v>309.3181738750546</v>
       </c>
       <c r="E162" t="n">
-        <v>225</v>
+        <v>214.135</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>自動巻</t>
+          <t>デジタル</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>5</v>
+        <v>1988</v>
       </c>
       <c r="C163" t="n">
-        <v>6</v>
+        <v>3449</v>
       </c>
       <c r="D163" t="n">
-        <v>371.302</v>
+        <v>166.0682595573441</v>
       </c>
       <c r="E163" t="n">
-        <v>393.88</v>
+        <v>133.395</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>手巻き</t>
+          <t>クオーツ</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2</v>
+        <v>1392</v>
       </c>
       <c r="C164" t="n">
-        <v>2</v>
+        <v>2144</v>
       </c>
       <c r="D164" t="n">
-        <v>180</v>
+        <v>168.1028807471264</v>
       </c>
       <c r="E164" t="n">
-        <v>180</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>自動巻</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>55</v>
+      </c>
+      <c r="C165" t="n">
+        <v>104</v>
+      </c>
+      <c r="D165" t="n">
+        <v>348.4267272727273</v>
+      </c>
+      <c r="E165" t="n">
+        <v>328.2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>価格帯分布（50ドル刻み）</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
+          <t>スマートウォッチ</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>38</v>
+      </c>
+      <c r="C166" t="n">
+        <v>64</v>
+      </c>
+      <c r="D166" t="n">
+        <v>241.5234210526316</v>
+      </c>
+      <c r="E166" t="n">
+        <v>215.985</v>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>価格帯</t>
-        </is>
-      </c>
-      <c r="B167" s="1" t="inlineStr">
-        <is>
-          <t>出品数</t>
-        </is>
-      </c>
-      <c r="C167" s="1" t="inlineStr">
-        <is>
-          <t>販売数</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>$0-50</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>11</v>
-      </c>
-      <c r="C168" t="n">
-        <v>12</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>手巻き</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>27</v>
+      </c>
+      <c r="C167" t="n">
+        <v>28</v>
+      </c>
+      <c r="D167" t="n">
+        <v>266.0122222222222</v>
+      </c>
+      <c r="E167" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>$50-100</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>325</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1155</v>
-      </c>
+          <t>価格帯分布（50ドル刻み）</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>$100-150</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>491</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1332</v>
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>価格帯</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="inlineStr">
+        <is>
+          <t>出品数</t>
+        </is>
+      </c>
+      <c r="C170" s="1" t="inlineStr">
+        <is>
+          <t>販売数</t>
+        </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>$150-200</t>
+          <t>$0-50</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="C171" t="n">
-        <v>1221</v>
+        <v>40</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>$200-250</t>
+          <t>$50-100</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>147</v>
+        <v>2520</v>
       </c>
       <c r="C172" t="n">
-        <v>429</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>$250-300</t>
+          <t>$100-150</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>126</v>
+        <v>3628</v>
       </c>
       <c r="C173" t="n">
-        <v>737</v>
+        <v>6086</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>$300-350</t>
+          <t>$150-200</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>92</v>
+        <v>2627</v>
       </c>
       <c r="C174" t="n">
-        <v>564</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>$350-400</t>
+          <t>$200-250</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>65</v>
+        <v>1340</v>
       </c>
       <c r="C175" t="n">
-        <v>253</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>$400-450</t>
+          <t>$250-300</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>34</v>
+        <v>1072</v>
       </c>
       <c r="C176" t="n">
-        <v>152</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>$450-500</t>
+          <t>$300-350</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>32</v>
+        <v>829</v>
       </c>
       <c r="C177" t="n">
-        <v>72</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>$500-550</t>
+          <t>$350-400</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>20</v>
+        <v>575</v>
       </c>
       <c r="C178" t="n">
-        <v>49</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>$550-600</t>
+          <t>$400-450</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>16</v>
+        <v>341</v>
       </c>
       <c r="C179" t="n">
-        <v>39</v>
+        <v>650</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>$600-650</t>
+          <t>$450-500</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="C180" t="n">
-        <v>15</v>
+        <v>503</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>$650-700</t>
+          <t>$500-550</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="C181" t="n">
-        <v>29</v>
+        <v>261</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>$700-750</t>
+          <t>$550-600</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="C182" t="n">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>$750-800</t>
+          <t>$600-650</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C183" t="n">
-        <v>48</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>$800-850</t>
+          <t>$650-700</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>$850-900</t>
+          <t>$700-750</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="C185" t="n">
-        <v>12</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>$900-950</t>
+          <t>$750-800</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="C186" t="n">
-        <v>13</v>
+        <v>173</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>$950-1000</t>
+          <t>$800-850</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C187" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>$1000+</t>
+          <t>$850-900</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C188" t="n">
-        <v>39</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>$900-950</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>51</v>
+      </c>
+      <c r="C189" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>月別推移</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
+          <t>$950-1000</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>46</v>
+      </c>
+      <c r="C190" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>販売月</t>
-        </is>
-      </c>
-      <c r="B191" s="1" t="inlineStr">
-        <is>
-          <t>出品数</t>
-        </is>
-      </c>
-      <c r="C191" s="1" t="inlineStr">
-        <is>
-          <t>販売数</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>88</v>
-      </c>
-      <c r="C192" t="n">
-        <v>89</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>$1000+</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>295</v>
+      </c>
+      <c r="C191" t="n">
+        <v>334</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
+          <t>月別推移</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>販売月</t>
+        </is>
+      </c>
+      <c r="B194" s="1" t="inlineStr">
+        <is>
+          <t>出品数</t>
+        </is>
+      </c>
+      <c r="C194" s="1" t="inlineStr">
+        <is>
+          <t>販売数</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>40</v>
+      </c>
+      <c r="C195" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>949</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1250</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1112</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1162</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1288</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1221</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>888</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>862</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1134</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1469</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
           <t>2026-01</t>
         </is>
       </c>
-      <c r="B193" t="n">
-        <v>1660</v>
-      </c>
-      <c r="C193" t="n">
-        <v>6104</v>
+      <c r="B207" t="n">
+        <v>2064</v>
+      </c>
+      <c r="C207" t="n">
+        <v>7679</v>
       </c>
     </row>
   </sheetData>
@@ -11082,7 +11386,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>684 件</t>
+          <t>685 件</t>
         </is>
       </c>
     </row>
@@ -11094,7 +11398,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1252 個</t>
+          <t>1253 個</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11410,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$1071.80</t>
+          <t>$1070.73</t>
         </is>
       </c>
     </row>
@@ -11118,7 +11422,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$587.56</t>
+          <t>$585.12</t>
         </is>
       </c>
     </row>
@@ -11154,7 +11458,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.096</t>
+          <t>1.097</t>
         </is>
       </c>
     </row>
@@ -12250,19 +12554,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C46" t="n">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D46" t="n">
-        <v>390.7465151515152</v>
+        <v>390.3273684210527</v>
       </c>
       <c r="E46" t="n">
         <v>300</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7538816184505014</v>
+        <v>0.7519498421769499</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -13558,19 +13862,19 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C93" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D93" t="n">
-        <v>334.3821276595745</v>
+        <v>334.395</v>
       </c>
       <c r="E93" t="n">
-        <v>257.18</v>
+        <v>268.34</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7794860148618364</v>
+        <v>0.7712939862062363</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -13692,16 +13996,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C99" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D99" t="n">
-        <v>1158.652179487179</v>
+        <v>1153.405987261146</v>
       </c>
       <c r="E99" t="n">
-        <v>505.685</v>
+        <v>503.77</v>
       </c>
     </row>
     <row r="100">
@@ -13872,10 +14176,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C112" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113">
@@ -14093,10 +14397,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -14149,7 +14453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14177,7 +14481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>376 件</t>
+          <t>383 件</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14493,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>698 個</t>
+          <t>706 個</t>
         </is>
       </c>
     </row>
@@ -14201,7 +14505,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$369.55</t>
+          <t>$368.64</t>
         </is>
       </c>
     </row>
@@ -14249,7 +14553,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.138</t>
+          <t>1.134</t>
         </is>
       </c>
     </row>
@@ -14328,19 +14632,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C13" t="n">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="D13" t="n">
-        <v>369.5527659574468</v>
+        <v>368.6423498694517</v>
       </c>
       <c r="E13" t="n">
         <v>240</v>
       </c>
       <c r="F13" t="n">
-        <v>1.137657670413673</v>
+        <v>1.133657611974716</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -14646,16 +14950,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C26" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D26" t="n">
-        <v>442.6126530612245</v>
+        <v>434.9486092715232</v>
       </c>
       <c r="E26" t="n">
-        <v>268</v>
+        <v>260.72</v>
       </c>
     </row>
     <row r="27">
@@ -14665,54 +14969,54 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C27" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D27" t="n">
-        <v>369.9498333333333</v>
+        <v>372.4096721311475</v>
       </c>
       <c r="E27" t="n">
-        <v>246.92</v>
+        <v>254.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>デジタル</t>
+          <t>クオーツ</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C28" t="n">
         <v>77</v>
       </c>
       <c r="D28" t="n">
-        <v>240.9327272727273</v>
+        <v>221.1562068965517</v>
       </c>
       <c r="E28" t="n">
-        <v>231.14</v>
+        <v>141.195</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>クオーツ</t>
+          <t>デジタル</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" t="n">
-        <v>214.7729824561403</v>
+        <v>240.9327272727273</v>
       </c>
       <c r="E29" t="n">
-        <v>139.99</v>
+        <v>231.14</v>
       </c>
     </row>
     <row r="30">
@@ -14818,10 +15122,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C37" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
@@ -14844,10 +15148,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40">
@@ -14870,10 +15174,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C41" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -14948,10 +15252,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -15000,10 +15304,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -15100,26 +15404,104 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>19</v>
+      </c>
+      <c r="C66" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>2026-01</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B67" t="n">
         <v>357</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C67" t="n">
         <v>679</v>
       </c>
     </row>
@@ -15134,7 +15516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15162,7 +15544,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>212 件</t>
+          <t>213 件</t>
         </is>
       </c>
     </row>
@@ -15174,7 +15556,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>550 個</t>
+          <t>551 個</t>
         </is>
       </c>
     </row>
@@ -15186,7 +15568,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$281.46</t>
+          <t>$281.34</t>
         </is>
       </c>
     </row>
@@ -15198,7 +15580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$256.48</t>
+          <t>$256.00</t>
         </is>
       </c>
     </row>
@@ -15234,7 +15616,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.489</t>
+          <t>0.488</t>
         </is>
       </c>
     </row>
@@ -15313,19 +15695,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C13" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D13" t="n">
-        <v>281.4609905660378</v>
+        <v>281.3367605633803</v>
       </c>
       <c r="E13" t="n">
-        <v>256.48</v>
+        <v>256</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4886534825209919</v>
+        <v>0.487762702580653</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -15535,16 +15917,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D23" t="n">
-        <v>293.8416504854369</v>
+        <v>293.4681730769231</v>
       </c>
       <c r="E23" t="n">
-        <v>269.38</v>
+        <v>269.19</v>
       </c>
     </row>
     <row r="24">
@@ -15721,10 +16103,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37">
@@ -15951,39 +16333,52 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>2026-01</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B58" t="n">
         <v>204</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C58" t="n">
         <v>542</v>
       </c>
     </row>
